--- a/Jpet_application/src/test/resources/test_data/jpet_test_data.xlsx
+++ b/Jpet_application/src/test/resources/test_data/jpet_test_data.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +398,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>123</v>
